--- a/results/SingleObjBaselines/SingleObjResults_facebook.xlsx
+++ b/results/SingleObjBaselines/SingleObjResults_facebook.xlsx
@@ -468,17 +468,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[0, 107, 525, 637, 838, 1669, 1684, 1912, 3187, 3437]</t>
+          <t>[107, 325, 483, 969, 1684, 1707, 1912, 2279, 2543, 3437]</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.3583560287199802</v>
+        <v>0.3706610547165139</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7866498839318091</v>
+        <v>0.8275680400935017</v>
       </c>
       <c r="E2" t="n">
-        <v>44.58299899101257</v>
+        <v>105.4560945034027</v>
       </c>
     </row>
     <row r="3">
@@ -489,17 +489,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[107, 513, 538, 1117, 1684, 1707, 1912, 2543, 2754, 3437]</t>
+          <t>[107, 484, 1192, 1613, 1684, 1912, 2273, 3397, 3437, 3638]</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.3599158207477098</v>
+        <v>0.3502599653379549</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7721661008171804</v>
+        <v>0.8106657294381167</v>
       </c>
       <c r="E3" t="n">
-        <v>42.40838122367859</v>
+        <v>113.1902978420258</v>
       </c>
     </row>
     <row r="4">
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.3692498143104729</v>
+        <v>0.3783609804407032</v>
       </c>
       <c r="D4" t="n">
         <v>0.7514987254718054</v>
       </c>
       <c r="E4" t="n">
-        <v>0.02331709861755371</v>
+        <v>0.03182768821716309</v>
       </c>
     </row>
     <row r="5">
@@ -535,13 +535,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.3723941569695469</v>
+        <v>0.3669225055706858</v>
       </c>
       <c r="D5" t="n">
         <v>0.7514987254718054</v>
       </c>
       <c r="E5" t="n">
-        <v>0.02346563339233398</v>
+        <v>0.03187751770019531</v>
       </c>
     </row>
     <row r="6">
@@ -552,17 +552,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[239, 1177, 1381, 2047, 2221, 2506, 2744, 3574, 3974, 4014]</t>
+          <t>[420, 640, 1109, 1624, 1696, 2046, 2576, 2671, 3001, 3810]</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.09477593463728647</v>
+        <v>0.08846249071552365</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8212545961717406</v>
+        <v>0.7696902404557053</v>
       </c>
       <c r="E6" t="n">
-        <v>0.004178047180175781</v>
+        <v>0.02113533020019531</v>
       </c>
     </row>
     <row r="7">
@@ -573,17 +573,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[633, 1495, 1627, 1698, 2018, 2214, 2238, 3430, 3625, 3728]</t>
+          <t>[224, 840, 841, 1389, 1437, 2097, 2803, 2877, 3358, 3824]</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.04421886605595444</v>
+        <v>0.08249566724436741</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7053843312547106</v>
+        <v>0.7155247738216819</v>
       </c>
       <c r="E7" t="n">
-        <v>0.00225377082824707</v>
+        <v>0.01619482040405273</v>
       </c>
     </row>
     <row r="8">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.3644714038128249</v>
+        <v>0.3689031938598663</v>
       </c>
       <c r="D8" t="n">
         <v>0.7421402727075381</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2191746234893799</v>
+        <v>0.5503153800964355</v>
       </c>
     </row>
     <row r="9">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.3655607823718742</v>
+        <v>0.3727160188165388</v>
       </c>
       <c r="D9" t="n">
         <v>0.7421402727075381</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1336171627044678</v>
+        <v>0.224726676940918</v>
       </c>
     </row>
     <row r="10">
@@ -640,13 +640,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.2332508046546175</v>
+        <v>0.2285219113641991</v>
       </c>
       <c r="D10" t="n">
         <v>0.6054140519383743</v>
       </c>
       <c r="E10" t="n">
-        <v>22.02887415885925</v>
+        <v>35.51386141777039</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.2350581827184947</v>
+        <v>0.2384005942064867</v>
       </c>
       <c r="D11" t="n">
         <v>0.6054140519383743</v>
       </c>
       <c r="E11" t="n">
-        <v>22.14192605018616</v>
+        <v>49.98198127746582</v>
       </c>
     </row>
     <row r="12">
@@ -682,13 +682,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.3549888586283734</v>
+        <v>0.353701411240406</v>
       </c>
       <c r="D12" t="n">
         <v>0.8456418207322693</v>
       </c>
       <c r="E12" t="n">
-        <v>84.13884520530701</v>
+        <v>115.7698450088501</v>
       </c>
     </row>
     <row r="13">
@@ -703,13 +703,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.3463233473632087</v>
+        <v>0.3461500371379054</v>
       </c>
       <c r="D13" t="n">
         <v>0.8456418207322693</v>
       </c>
       <c r="E13" t="n">
-        <v>87.37282800674438</v>
+        <v>140.515597820282</v>
       </c>
     </row>
     <row r="14">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.1166130230255014</v>
+        <v>0.1176281257737064</v>
       </c>
       <c r="D14" t="n">
         <v>0.6469960105796071</v>
       </c>
       <c r="E14" t="n">
-        <v>0.676612377166748</v>
+        <v>0.9430646896362305</v>
       </c>
     </row>
     <row r="15">
@@ -745,13 +745,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.1167120574399604</v>
+        <v>0.114310472889329</v>
       </c>
       <c r="D15" t="n">
         <v>0.6469960105796071</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7074637413024902</v>
+        <v>0.832622766494751</v>
       </c>
     </row>
   </sheetData>
